--- a/data_year/zb/对外经济贸易/按方式分外商投资额/实际使用金额.xlsx
+++ b/data_year/zb/对外经济贸易/按方式分外商投资额/实际使用金额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,762 +493,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166637</v>
+        <v>107800</v>
       </c>
       <c r="C2" t="n">
-        <v>659575</v>
+        <v>161600</v>
       </c>
       <c r="D2" t="n">
-        <v>1434305</v>
+        <v>2249800</v>
       </c>
       <c r="E2" t="n">
-        <v>3358</v>
+        <v>30000</v>
       </c>
       <c r="F2" t="n">
-        <v>864100</v>
+        <v>308600</v>
       </c>
       <c r="G2" t="n">
-        <v>13021</v>
+        <v>64600</v>
       </c>
       <c r="H2" t="n">
-        <v>4071500</v>
+        <v>11473000</v>
       </c>
       <c r="I2" t="n">
-        <v>1926388</v>
+        <v>8097500</v>
       </c>
       <c r="J2" t="n">
-        <v>5936000</v>
+        <v>10882000</v>
       </c>
       <c r="K2" t="n">
-        <v>693049</v>
+        <v>166400</v>
       </c>
       <c r="L2" t="n">
-        <v>1102</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183942</v>
+        <v>69400</v>
       </c>
       <c r="C3" t="n">
-        <v>621218</v>
+        <v>175700</v>
       </c>
       <c r="D3" t="n">
-        <v>1573890</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10428</v>
-      </c>
+        <v>2141500</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>279400</v>
+        <v>168700</v>
       </c>
       <c r="G3" t="n">
-        <v>52764</v>
+        <v>163400</v>
       </c>
       <c r="H3" t="n">
-        <v>4687800</v>
+        <v>12399000</v>
       </c>
       <c r="I3" t="n">
-        <v>2387338</v>
+        <v>9120500</v>
       </c>
       <c r="J3" t="n">
-        <v>4967000</v>
+        <v>11769800</v>
       </c>
       <c r="K3" t="n">
-        <v>84800</v>
+        <v>93900</v>
       </c>
       <c r="L3" t="n">
-        <v>283</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213300</v>
+        <v>75600</v>
       </c>
       <c r="C4" t="n">
-        <v>505800</v>
+        <v>230800</v>
       </c>
       <c r="D4" t="n">
-        <v>1499200</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13100</v>
-      </c>
+        <v>2170600</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>226800</v>
+        <v>157800</v>
       </c>
       <c r="G4" t="n">
-        <v>69700</v>
+        <v>157000</v>
       </c>
       <c r="H4" t="n">
-        <v>5274000</v>
+        <v>12107000</v>
       </c>
       <c r="I4" t="n">
-        <v>3172500</v>
+        <v>8613200</v>
       </c>
       <c r="J4" t="n">
-        <v>5501000</v>
+        <v>11329400</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72700</v>
       </c>
       <c r="L4" t="n">
-        <v>400</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222500</v>
+        <v>80800</v>
       </c>
       <c r="C5" t="n">
-        <v>383600</v>
+        <v>194400</v>
       </c>
       <c r="D5" t="n">
-        <v>1539200</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12900</v>
-      </c>
+        <v>2377200</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>263500</v>
+        <v>113400</v>
       </c>
       <c r="G5" t="n">
-        <v>32800</v>
+        <v>228100</v>
       </c>
       <c r="H5" t="n">
-        <v>5350500</v>
+        <v>12391000</v>
       </c>
       <c r="I5" t="n">
-        <v>3338400</v>
+        <v>8958900</v>
       </c>
       <c r="J5" t="n">
-        <v>5614000</v>
+        <v>11872100</v>
       </c>
       <c r="K5" t="n">
-        <v>27500</v>
-      </c>
-      <c r="L5" t="n">
-        <v>700</v>
-      </c>
+        <v>32600</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270500</v>
+        <v>14400</v>
       </c>
       <c r="C6" t="n">
-        <v>311200</v>
+        <v>163300</v>
       </c>
       <c r="D6" t="n">
-        <v>1638600</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3800</v>
-      </c>
+        <v>2100200</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>344300</v>
+        <v>14400</v>
       </c>
       <c r="G6" t="n">
-        <v>77700</v>
+        <v>218900</v>
       </c>
       <c r="H6" t="n">
-        <v>6063000</v>
+        <v>12850000</v>
       </c>
       <c r="I6" t="n">
-        <v>4022200</v>
+        <v>9473700</v>
       </c>
       <c r="J6" t="n">
-        <v>6407200</v>
-      </c>
-      <c r="K6" t="n">
-        <v>69500</v>
-      </c>
-      <c r="L6" t="n">
-        <v>500</v>
-      </c>
+        <v>11970500</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>319600</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>183100</v>
+        <v>184500</v>
       </c>
       <c r="D7" t="n">
-        <v>1461400</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10800</v>
-      </c>
+        <v>2588500</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>348000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>91800</v>
+        <v>325100</v>
       </c>
       <c r="H7" t="n">
-        <v>6032500</v>
+        <v>13558000</v>
       </c>
       <c r="I7" t="n">
-        <v>4296100</v>
+        <v>9528500</v>
       </c>
       <c r="J7" t="n">
-        <v>6380500</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1600</v>
-      </c>
+        <v>12626700</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>264300</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>194000</v>
+        <v>83000</v>
       </c>
       <c r="D8" t="n">
-        <v>1437800</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3600</v>
-      </c>
-      <c r="F8" t="n">
-        <v>405500</v>
-      </c>
+        <v>3020400</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>42200</v>
+        <v>884200</v>
       </c>
       <c r="H8" t="n">
-        <v>6582100</v>
+        <v>13371000</v>
       </c>
       <c r="I8" t="n">
-        <v>4628100</v>
+        <v>8612600</v>
       </c>
       <c r="J8" t="n">
-        <v>6987600</v>
-      </c>
-      <c r="K8" t="n">
-        <v>135500</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2100</v>
-      </c>
+        <v>12600100</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>297200</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>141600</v>
+        <v>80500</v>
       </c>
       <c r="D9" t="n">
-        <v>1559600</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>357200</v>
-      </c>
+        <v>2974100</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>49200</v>
+        <v>647500</v>
       </c>
       <c r="H9" t="n">
-        <v>7477000</v>
+        <v>13632000</v>
       </c>
       <c r="I9" t="n">
-        <v>5726400</v>
+        <v>9134400</v>
       </c>
       <c r="J9" t="n">
-        <v>7834000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>40200</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1800</v>
-      </c>
+        <v>13103500</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>258500</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>190300</v>
+        <v>77200</v>
       </c>
       <c r="D10" t="n">
-        <v>1731800</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14400</v>
-      </c>
-      <c r="F10" t="n">
-        <v>285800</v>
-      </c>
+        <v>3449300</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>85900</v>
+        <v>829900</v>
       </c>
       <c r="H10" t="n">
-        <v>9239500</v>
+        <v>13831000</v>
       </c>
       <c r="I10" t="n">
-        <v>7231500</v>
+        <v>8939700</v>
       </c>
       <c r="J10" t="n">
-        <v>9525300</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7700</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5200</v>
-      </c>
+        <v>13496600</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>136600</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>203400</v>
+        <v>33400</v>
       </c>
       <c r="D11" t="n">
-        <v>1727300</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>177100</v>
-      </c>
+        <v>3177900</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>204400</v>
+        <v>808400</v>
       </c>
       <c r="H11" t="n">
-        <v>9003300</v>
+        <v>14122000</v>
       </c>
       <c r="I11" t="n">
-        <v>6868200</v>
+        <v>9361000</v>
       </c>
       <c r="J11" t="n">
-        <v>9180400</v>
-      </c>
-      <c r="K11" t="n">
-        <v>16200</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1300</v>
-      </c>
+        <v>13813500</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>107800</v>
-      </c>
-      <c r="C12" t="n">
-        <v>161600</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2249800</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>308600</v>
-      </c>
-      <c r="G12" t="n">
-        <v>64600</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>10573000</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8097500</v>
-      </c>
+        <v>14934000</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>10882000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>166400</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4500</v>
-      </c>
+        <v>14436900</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>69400</v>
-      </c>
-      <c r="C13" t="n">
-        <v>175700</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2141500</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>168700</v>
-      </c>
-      <c r="G13" t="n">
-        <v>163400</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>11601100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9120500</v>
-      </c>
+        <v>18096000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>11769800</v>
-      </c>
-      <c r="K13" t="n">
-        <v>93900</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5400</v>
-      </c>
+        <v>17348300</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C14" t="n">
-        <v>230800</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2170600</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>157800</v>
-      </c>
-      <c r="G14" t="n">
-        <v>157000</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>11171600</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8613200</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11329400</v>
-      </c>
-      <c r="K14" t="n">
-        <v>72700</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>80800</v>
-      </c>
-      <c r="C15" t="n">
-        <v>194400</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2377200</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>113400</v>
-      </c>
-      <c r="G15" t="n">
-        <v>228100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11758600</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8958900</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11872100</v>
-      </c>
-      <c r="K15" t="n">
-        <v>32600</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14400</v>
-      </c>
-      <c r="C16" t="n">
-        <v>163300</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2100200</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G16" t="n">
-        <v>218900</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11956200</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9473700</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11970500</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>184500</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2588500</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>325100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12626700</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9528500</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12626700</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>83000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3020400</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>884200</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12600100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8612600</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12600100</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>80500</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2974100</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>647500</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13103500</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9134400</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13103500</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>77200</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3449300</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>829900</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13496600</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8939700</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13496600</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>33400</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3177900</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>808400</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13813462</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9361000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13813462</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>14436926</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>14436900</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+        <v>18913241</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
